--- a/Output data/Latest data point per country-indicator.xlsx
+++ b/Output data/Latest data point per country-indicator.xlsx
@@ -8517,7 +8517,7 @@
       </c>
       <c r="AS37" t="inlineStr">
         <is>
-          <t>c(2019, 2019)</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr">
